--- a/junk/allDec17_selectedVarsOnly.xlsx
+++ b/junk/allDec17_selectedVarsOnly.xlsx
@@ -627,7 +627,9 @@
       <c r="E20" s="2">
         <v>1.9662165641784668</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>737.489013671875</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1073,7 +1075,9 @@
       <c r="E43" s="2">
         <v>2.4693737030029297</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1">
+        <v>1910.583984375</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1519,7 +1523,9 @@
       <c r="E66" s="2">
         <v>2.0948524475097656</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1">
+        <v>622.634033203125</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -1965,7 +1971,9 @@
       <c r="E89" s="2">
         <v>2.533729076385498</v>
       </c>
-      <c r="F89" s="1"/>
+      <c r="F89" s="1">
+        <v>691.19378662109375</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -2411,7 +2419,9 @@
       <c r="E112" s="2">
         <v>3.9578864574432373</v>
       </c>
-      <c r="F112" s="1"/>
+      <c r="F112" s="1">
+        <v>1367.5357666015625</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -2857,7 +2867,9 @@
       <c r="E135" s="2">
         <v>3.4847216606140137</v>
       </c>
-      <c r="F135" s="1"/>
+      <c r="F135" s="1">
+        <v>1012.0352783203125</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
@@ -3303,7 +3315,9 @@
       <c r="E158" s="2">
         <v>2.4335856437683105</v>
       </c>
-      <c r="F158" s="1"/>
+      <c r="F158" s="1">
+        <v>1370.9669189453125</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
@@ -3749,7 +3763,9 @@
       <c r="E181" s="2">
         <v>3.0817437171936035</v>
       </c>
-      <c r="F181" s="1"/>
+      <c r="F181" s="1">
+        <v>755.36846923828125</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
@@ -4195,7 +4211,9 @@
       <c r="E204" s="2">
         <v>3.3482120037078857</v>
       </c>
-      <c r="F204" s="1"/>
+      <c r="F204" s="1">
+        <v>483.33575439453125</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
@@ -4641,7 +4659,9 @@
       <c r="E227" s="2">
         <v>2.7357101440429688</v>
       </c>
-      <c r="F227" s="1"/>
+      <c r="F227" s="1">
+        <v>658.4869384765625</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
@@ -5087,7 +5107,9 @@
       <c r="E250" s="2">
         <v>2.4755780696868896</v>
       </c>
-      <c r="F250" s="1"/>
+      <c r="F250" s="1">
+        <v>1114.439453125</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
@@ -5533,7 +5555,9 @@
       <c r="E273" s="2">
         <v>3.2236080169677734</v>
       </c>
-      <c r="F273" s="1"/>
+      <c r="F273" s="1">
+        <v>675.06451416015625</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
@@ -5979,7 +6003,9 @@
       <c r="E296" s="2">
         <v>2.5245418548583984</v>
       </c>
-      <c r="F296" s="1"/>
+      <c r="F296" s="1">
+        <v>1224.7437744140625</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
@@ -6425,7 +6451,9 @@
       <c r="E319" s="2">
         <v>1.8619146347045898</v>
       </c>
-      <c r="F319" s="1"/>
+      <c r="F319" s="1">
+        <v>425.10922241210938</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
@@ -6871,7 +6899,9 @@
       <c r="E342" s="2">
         <v>2.3356297016143799</v>
       </c>
-      <c r="F342" s="1"/>
+      <c r="F342" s="1">
+        <v>857.9986572265625</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
@@ -7317,7 +7347,9 @@
       <c r="E365" s="2">
         <v>2.6929895877838135</v>
       </c>
-      <c r="F365" s="1"/>
+      <c r="F365" s="1">
+        <v>666.1197509765625</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
@@ -7763,7 +7795,9 @@
       <c r="E388" s="2">
         <v>2.0946300029754639</v>
       </c>
-      <c r="F388" s="1"/>
+      <c r="F388" s="1">
+        <v>1041.452880859375</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
@@ -8209,7 +8243,9 @@
       <c r="E411" s="2">
         <v>2.1288683414459229</v>
       </c>
-      <c r="F411" s="1"/>
+      <c r="F411" s="1">
+        <v>1028.8780517578125</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
@@ -8655,7 +8691,9 @@
       <c r="E434" s="2">
         <v>3.4758002758026123</v>
       </c>
-      <c r="F434" s="1"/>
+      <c r="F434" s="1">
+        <v>786.43304443359375</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
@@ -9101,7 +9139,9 @@
       <c r="E457" s="2">
         <v>2.5553805828094482</v>
       </c>
-      <c r="F457" s="1"/>
+      <c r="F457" s="1">
+        <v>744.26898193359375</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
@@ -9547,7 +9587,9 @@
       <c r="E480" s="2">
         <v>3.2608063220977783</v>
       </c>
-      <c r="F480" s="1"/>
+      <c r="F480" s="1">
+        <v>1018.4600830078125</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
@@ -9993,7 +10035,9 @@
       <c r="E503" s="2">
         <v>1.7362073659896851</v>
       </c>
-      <c r="F503" s="1"/>
+      <c r="F503" s="1">
+        <v>814.490234375</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="s">
@@ -10439,7 +10483,9 @@
       <c r="E526" s="2">
         <v>2.2388184070587158</v>
       </c>
-      <c r="F526" s="1"/>
+      <c r="F526" s="1">
+        <v>1012.5336303710938</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -10885,7 +10931,9 @@
       <c r="E549" s="2">
         <v>1.8358103036880493</v>
       </c>
-      <c r="F549" s="1"/>
+      <c r="F549" s="1">
+        <v>964.17724609375</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
@@ -11331,7 +11379,9 @@
       <c r="E572" s="2">
         <v>3.7203807830810547</v>
       </c>
-      <c r="F572" s="1"/>
+      <c r="F572" s="1">
+        <v>803.87286376953125</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
@@ -11777,7 +11827,9 @@
       <c r="E595" s="2">
         <v>3.8857884407043457</v>
       </c>
-      <c r="F595" s="1"/>
+      <c r="F595" s="1">
+        <v>1045.2535400390625</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
@@ -12223,7 +12275,9 @@
       <c r="E618" s="2">
         <v>3.3580679893493652</v>
       </c>
-      <c r="F618" s="1"/>
+      <c r="F618" s="1">
+        <v>418.68966674804688</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
@@ -12669,7 +12723,9 @@
       <c r="E641" s="2">
         <v>2.961667537689209</v>
       </c>
-      <c r="F641" s="1"/>
+      <c r="F641" s="1">
+        <v>909.0924072265625</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="s">
@@ -13115,7 +13171,9 @@
       <c r="E664" s="2">
         <v>3.4005773067474365</v>
       </c>
-      <c r="F664" s="1"/>
+      <c r="F664" s="1">
+        <v>607.8414306640625</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
@@ -13561,7 +13619,9 @@
       <c r="E687" s="2">
         <v>2.9037094116210938</v>
       </c>
-      <c r="F687" s="1"/>
+      <c r="F687" s="1">
+        <v>1557.510986328125</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="s">
@@ -14007,7 +14067,9 @@
       <c r="E710" s="2">
         <v>2.4678161144256592</v>
       </c>
-      <c r="F710" s="1"/>
+      <c r="F710" s="1">
+        <v>1182.9288330078125</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="s">
@@ -14453,7 +14515,9 @@
       <c r="E733" s="2">
         <v>2.9890353679656982</v>
       </c>
-      <c r="F733" s="1"/>
+      <c r="F733" s="1">
+        <v>1200.2926025390625</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="s">
@@ -14899,7 +14963,9 @@
       <c r="E756" s="2">
         <v>2.3604228496551514</v>
       </c>
-      <c r="F756" s="1"/>
+      <c r="F756" s="1">
+        <v>610.55072021484375</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="s">
@@ -15345,7 +15411,9 @@
       <c r="E779" s="2">
         <v>3.432614803314209</v>
       </c>
-      <c r="F779" s="1"/>
+      <c r="F779" s="1">
+        <v>830.29541015625</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="s">
@@ -15791,7 +15859,9 @@
       <c r="E802" s="2">
         <v>1.8900953531265259</v>
       </c>
-      <c r="F802" s="1"/>
+      <c r="F802" s="1">
+        <v>1487.89111328125</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" t="s">
@@ -16237,7 +16307,9 @@
       <c r="E825" s="2">
         <v>2.5175681114196777</v>
       </c>
-      <c r="F825" s="1"/>
+      <c r="F825" s="1">
+        <v>681.94525146484375</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" t="s">
@@ -16683,7 +16755,9 @@
       <c r="E848" s="2">
         <v>3.1310818195343018</v>
       </c>
-      <c r="F848" s="1"/>
+      <c r="F848" s="1">
+        <v>1417.1741943359375</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" t="s">
@@ -17129,7 +17203,9 @@
       <c r="E871" s="2">
         <v>2.2245891094207764</v>
       </c>
-      <c r="F871" s="1"/>
+      <c r="F871" s="1">
+        <v>1000.181640625</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" t="s">
@@ -17575,7 +17651,9 @@
       <c r="E894" s="2">
         <v>3.1897280216217041</v>
       </c>
-      <c r="F894" s="1"/>
+      <c r="F894" s="1">
+        <v>1212.654541015625</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" t="s">
@@ -18021,7 +18099,9 @@
       <c r="E917" s="2">
         <v>2.1044044494628906</v>
       </c>
-      <c r="F917" s="1"/>
+      <c r="F917" s="1">
+        <v>832.1409912109375</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" t="s">
@@ -18467,7 +18547,9 @@
       <c r="E940" s="2">
         <v>2.7758004665374756</v>
       </c>
-      <c r="F940" s="1"/>
+      <c r="F940" s="1">
+        <v>679.6947021484375</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" t="s">
@@ -18913,7 +18995,9 @@
       <c r="E963" s="2">
         <v>2.014700174331665</v>
       </c>
-      <c r="F963" s="1"/>
+      <c r="F963" s="1">
+        <v>409.31222534179688</v>
+      </c>
     </row>
     <row r="964">
       <c r="A964" t="s">
@@ -19359,7 +19443,9 @@
       <c r="E986" s="2">
         <v>2.2194924354553223</v>
       </c>
-      <c r="F986" s="1"/>
+      <c r="F986" s="1">
+        <v>645.0269775390625</v>
+      </c>
     </row>
     <row r="987">
       <c r="A987" t="s">
@@ -19805,7 +19891,9 @@
       <c r="E1009" s="2">
         <v>3.2217137813568115</v>
       </c>
-      <c r="F1009" s="1"/>
+      <c r="F1009" s="1">
+        <v>555.30584716796875</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" t="s">
@@ -20251,7 +20339,9 @@
       <c r="E1032" s="2">
         <v>3.4042785167694092</v>
       </c>
-      <c r="F1032" s="1"/>
+      <c r="F1032" s="1">
+        <v>657.93963623046875</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" t="s">
@@ -20697,7 +20787,9 @@
       <c r="E1055" s="2">
         <v>2.9010965824127197</v>
       </c>
-      <c r="F1055" s="1"/>
+      <c r="F1055" s="1">
+        <v>611.47491455078125</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" t="s">
@@ -21143,7 +21235,9 @@
       <c r="E1078" s="2">
         <v>2.5172739028930664</v>
       </c>
-      <c r="F1078" s="1"/>
+      <c r="F1078" s="1">
+        <v>1004.8995361328125</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" t="s">
@@ -21589,7 +21683,9 @@
       <c r="E1101" s="2">
         <v>2.1323921680450439</v>
       </c>
-      <c r="F1101" s="1"/>
+      <c r="F1101" s="1">
+        <v>868.62725830078125</v>
+      </c>
     </row>
     <row r="1102">
       <c r="A1102" t="s">
@@ -22035,7 +22131,9 @@
       <c r="E1124" s="2">
         <v>2.3210983276367188</v>
       </c>
-      <c r="F1124" s="1"/>
+      <c r="F1124" s="1">
+        <v>975.16455078125</v>
+      </c>
     </row>
     <row r="1125">
       <c r="A1125" t="s">
@@ -22481,7 +22579,9 @@
       <c r="E1147" s="2">
         <v>3.7509455680847168</v>
       </c>
-      <c r="F1147" s="1"/>
+      <c r="F1147" s="1">
+        <v>1445.970458984375</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" t="s">
